--- a/config/landscapes_regular.xlsx
+++ b/config/landscapes_regular.xlsx
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
